--- a/Master Datasheets/Format used to generate Bar graphs.xlsx
+++ b/Master Datasheets/Format used to generate Bar graphs.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SuhoN\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\project-13-b\Master Datasheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0A88B8D-17CB-440E-85E2-AB78B98311EA}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF5CF177-EF59-452C-B75E-4F6EADB351EC}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{AC18EB4A-2917-4A2B-83BD-E5E46A025B93}"/>
   </bookViews>
@@ -175,11 +175,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -232,17 +232,25 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-NZ"/>
+              <a:rPr lang="en-NZ" sz="2800"/>
               <a:t>Time Taken vs</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-NZ" baseline="0"/>
+              <a:rPr lang="en-NZ" sz="2800" baseline="0"/>
               <a:t> Clicking Method</a:t>
             </a:r>
-            <a:endParaRPr lang="en-NZ"/>
+            <a:endParaRPr lang="en-NZ" sz="2800"/>
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.12607736930972802"/>
+          <c:y val="1.8847603661820141E-2"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -956,7 +964,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -969,7 +977,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-NZ"/>
+                  <a:rPr lang="en-NZ" sz="1400" baseline="0"/>
                   <a:t>Clicking Method</a:t>
                 </a:r>
               </a:p>
@@ -988,7 +996,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -1026,7 +1034,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1076,7 +1084,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -1089,7 +1097,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-NZ"/>
+                  <a:rPr lang="en-NZ" sz="1400" baseline="0"/>
                   <a:t>Time Taken (s)</a:t>
                 </a:r>
               </a:p>
@@ -1108,7 +1116,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -1140,7 +1148,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1169,6 +1177,16 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.78545580687764349"/>
+          <c:y val="0.20270035914331389"/>
+          <c:w val="0.19755905511811023"/>
+          <c:h val="0.22082437595139057"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1182,7 +1200,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -1269,14 +1287,9 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-NZ"/>
-              <a:t>Error Count vs</a:t>
+              <a:rPr lang="en-NZ" sz="2800" baseline="0"/>
+              <a:t>Error Count vs Clicking Method</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="en-NZ" baseline="0"/>
-              <a:t> Clicking Method</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-NZ"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -1957,7 +1970,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -1970,7 +1983,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-NZ"/>
+                  <a:rPr lang="en-NZ" sz="1400" baseline="0"/>
                   <a:t>Clicking Method</a:t>
                 </a:r>
               </a:p>
@@ -1989,7 +2002,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -2027,7 +2040,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -2077,7 +2090,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -2090,7 +2103,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-NZ"/>
+                  <a:rPr lang="en-NZ" sz="1400" baseline="0"/>
                   <a:t>Error Count</a:t>
                 </a:r>
               </a:p>
@@ -2109,7 +2122,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -2141,7 +2154,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -2183,7 +2196,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -3327,15 +3340,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>137160</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>129540</xdr:rowOff>
+      <xdr:colOff>182880</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>22860</xdr:colOff>
-      <xdr:row>66</xdr:row>
-      <xdr:rowOff>91440</xdr:rowOff>
+      <xdr:colOff>205740</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3362,16 +3375,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>213360</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>83820</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>99060</xdr:colOff>
-      <xdr:row>65</xdr:row>
-      <xdr:rowOff>106680</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3700,8 +3713,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAFDDC1B-F746-4E4D-ADA5-8D0F2555711A}">
   <dimension ref="A1:J40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="L40" sqref="L40"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3710,40 +3723,40 @@
       <c r="A1" s="1"/>
     </row>
     <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
     </row>
     <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9" t="s">
+      <c r="B3" s="10"/>
+      <c r="C3" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9" t="s">
+      <c r="D3" s="10"/>
+      <c r="E3" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9" t="s">
+      <c r="F3" s="10"/>
+      <c r="G3" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9" t="s">
+      <c r="H3" s="10"/>
+      <c r="I3" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="J3" s="9"/>
+      <c r="J3" s="10"/>
     </row>
     <row r="4" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
@@ -4042,40 +4055,40 @@
       <c r="A22" s="1"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A23" s="10" t="s">
+      <c r="A23" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B23" s="10"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="10"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="10"/>
-      <c r="I23" s="10"/>
-      <c r="J23" s="10"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A24" s="9" t="s">
+      <c r="A24" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B24" s="9"/>
-      <c r="C24" s="9" t="s">
+      <c r="B24" s="10"/>
+      <c r="C24" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9" t="s">
+      <c r="D24" s="10"/>
+      <c r="E24" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="F24" s="9"/>
-      <c r="G24" s="9" t="s">
+      <c r="F24" s="10"/>
+      <c r="G24" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="H24" s="9"/>
-      <c r="I24" s="9" t="s">
+      <c r="H24" s="10"/>
+      <c r="I24" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="J24" s="9"/>
+      <c r="J24" s="10"/>
     </row>
     <row r="25" spans="1:10" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A25" s="6" t="s">

--- a/Master Datasheets/Format used to generate Bar graphs.xlsx
+++ b/Master Datasheets/Format used to generate Bar graphs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\project-13-b\Master Datasheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF5CF177-EF59-452C-B75E-4F6EADB351EC}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52463CD7-3DCE-43E1-B5E3-F500913EB2AD}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{AC18EB4A-2917-4A2B-83BD-E5E46A025B93}"/>
   </bookViews>
@@ -1413,17 +1413,17 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$C$3:$C$5</c:f>
+              <c:f>Sheet1!$C$25:$C$27</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>Clicking Method</c:v>
+                  <c:v>Back Tapping</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Back Tapping</c:v>
+                  <c:v>Bezel Swiping</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Bezel Swiping</c:v>
+                  <c:v>Floating Button</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1540,17 +1540,17 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$C$3:$C$5</c:f>
+              <c:f>Sheet1!$C$25:$C$27</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>Clicking Method</c:v>
+                  <c:v>Back Tapping</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Back Tapping</c:v>
+                  <c:v>Bezel Swiping</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Bezel Swiping</c:v>
+                  <c:v>Floating Button</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1667,17 +1667,17 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$C$3:$C$5</c:f>
+              <c:f>Sheet1!$C$25:$C$27</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>Clicking Method</c:v>
+                  <c:v>Back Tapping</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Back Tapping</c:v>
+                  <c:v>Bezel Swiping</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Bezel Swiping</c:v>
+                  <c:v>Floating Button</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1790,6 +1790,23 @@
               </c:ext>
             </c:extLst>
           </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$C$25:$C$27</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Back Tapping</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Bezel Swiping</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Floating Button</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Sheet1!$C$40</c:f>
@@ -1904,20 +1921,20 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$C$3:$C$5</c15:sqref>
+                          <c15:sqref>Sheet1!$C$25:$C$27</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:strCache>
                       <c:ptCount val="3"/>
                       <c:pt idx="0">
-                        <c:v>Clicking Method</c:v>
+                        <c:v>Back Tapping</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>Back Tapping</c:v>
+                        <c:v>Bezel Swiping</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>Bezel Swiping</c:v>
+                        <c:v>Floating Button</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -3713,8 +3730,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAFDDC1B-F746-4E4D-ADA5-8D0F2555711A}">
   <dimension ref="A1:J40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="A38" sqref="A38"/>
+    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="W50" sqref="W50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4348,18 +4365,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I3:J3"/>
     <mergeCell ref="A23:J23"/>
     <mergeCell ref="A24:B24"/>
     <mergeCell ref="C24:D24"/>
     <mergeCell ref="E24:F24"/>
     <mergeCell ref="G24:H24"/>
     <mergeCell ref="I24:J24"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="I3:J3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
